--- a/excel.xlsx
+++ b/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afc00f733cf97166/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/afc00f733cf97166/Documents/help - quick start guides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="8_{8EA3AAF1-32F0-492D-A0EA-BC9DB12775BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ED1F1E3-25EE-44A5-9551-B273D6605C09}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="8_{8EA3AAF1-32F0-492D-A0EA-BC9DB12775BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE4837B-E806-4629-A667-A629FC050B8D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C871162-3525-4ABB-835C-D951C61383AD}"/>
   </bookViews>
@@ -92,10 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
-  <si>
-    <t>Column1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>attack</t>
   </si>
@@ -148,18 +145,6 @@
     <t>Ctrl + Q</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -209,9 +194,6 @@
   </si>
   <si>
     <t>Autofit columns</t>
-  </si>
-  <si>
-    <t>Highlight values (Ctrl + Shift + Arrow) to see aggregate values (count, average, and sum) on bottom right</t>
   </si>
   <si>
     <t>transpose paste</t>
@@ -274,16 +256,55 @@
   </si>
   <si>
     <t>A way to programatically carry out tasks in excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Click or Shift Space</t>
+  </si>
+  <si>
+    <t>Generated /w python (seaborn, matplotlib, pandas)</t>
+  </si>
+  <si>
+    <t>Output as Excel object and right click to show over cells for resizing</t>
+  </si>
+  <si>
+    <t>Highlight cells (Ctrl + Shift + Arrow) to see aggregate values (count, average, and sum) on bottom right</t>
+  </si>
+  <si>
+    <t>Top Tip:</t>
+  </si>
+  <si>
+    <t>E.g. Cleansing csv or webpage data &amp; showing insights</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Deselect</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>Navigate</t>
+  </si>
+  <si>
+    <t>Tab for next cell</t>
+  </si>
+  <si>
+    <t>Ctrl + (arrows, or home, end, pageup, …)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +334,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +395,30 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -455,40 +507,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,7 +557,7 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -506,17 +567,26 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="9"/>
-          <bgColor theme="9"/>
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -539,6 +609,38 @@
         <patternFill patternType="solid">
           <fgColor theme="9" tint="0.79998168889431442"/>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
         </patternFill>
       </fill>
     </dxf>
@@ -611,6 +713,22 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -633,67 +751,6 @@
           <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="9" tint="0.79998168889431442"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -772,18 +829,18 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="9" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -879,7 +936,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Excel help'!$A$42</c:f>
+              <c:f>'Excel help'!$A$53</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -900,7 +957,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Excel help'!$B$41:$H$41</c:f>
+              <c:f>'Excel help'!$B$52:$H$52</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -929,7 +986,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Excel help'!$B$42:$H$42</c:f>
+              <c:f>'Excel help'!$B$53:$H$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -968,7 +1025,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Excel help'!$A$43</c:f>
+              <c:f>'Excel help'!$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -989,7 +1046,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Excel help'!$B$41:$H$41</c:f>
+              <c:f>'Excel help'!$B$52:$H$52</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1018,7 +1075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Excel help'!$B$43:$H$43</c:f>
+              <c:f>'Excel help'!$B$54:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1057,7 +1114,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Excel help'!$A$44</c:f>
+              <c:f>'Excel help'!$A$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1078,7 +1135,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Excel help'!$B$41:$H$41</c:f>
+              <c:f>'Excel help'!$B$52:$H$52</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1107,7 +1164,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Excel help'!$B$44:$H$44</c:f>
+              <c:f>'Excel help'!$B$55:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1884,13 +1941,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1916,7 +1973,55 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>544078</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>150885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5D23507-E35E-58F5-DA27-EEDFDE0EB67C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="350520" y="10767060"/>
+          <a:ext cx="5230378" cy="4425705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1986,7 +2091,7 @@
   <rv s="3">
     <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
     <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=572x484 at 0x7F4838ED4D60&gt;</v>
+    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=572x484 at 0x7FD5AF35FBE0&gt;</v>
     <v>2</v>
   </rv>
 </rvData>
@@ -2054,8 +2159,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6342F6A7-6F11-4C25-9E9A-A6F909FCFC70}" name="Table19" displayName="Table19" ref="A41:H44" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="15">
-  <autoFilter ref="A41:H44" xr:uid="{6342F6A7-6F11-4C25-9E9A-A6F909FCFC70}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{6342F6A7-6F11-4C25-9E9A-A6F909FCFC70}" name="Table19" displayName="Table19" ref="A52:H55" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A52:H55" xr:uid="{6342F6A7-6F11-4C25-9E9A-A6F909FCFC70}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A61D9F5D-2CFD-49A7-9D18-4B09B1D3789F}" name="attr"/>
     <tableColumn id="2" xr3:uid="{32B948C2-68C1-4153-970D-40EA9AFC19B8}" name="Pigeon" dataDxfId="13"/>
@@ -2071,16 +2176,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3BDED312-8D96-44FD-A78A-1D599E9E3C28}" name="animals" displayName="animals" ref="A2:D9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
-  <autoFilter ref="A2:D9" xr:uid="{3BDED312-8D96-44FD-A78A-1D599E9E3C28}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D9">
-    <sortCondition ref="B2:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{3BDED312-8D96-44FD-A78A-1D599E9E3C28}" name="animals" displayName="animals" ref="A6:D13" totalsRowShown="0" headerRowDxfId="2" dataDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A6:D13" xr:uid="{3BDED312-8D96-44FD-A78A-1D599E9E3C28}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:D13">
+    <sortCondition ref="B6:B13"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CE594B33-A603-44A4-B2FE-57F35DD4502D}" name="name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A700E0B7-92F5-4727-9CE4-42B14AFC7852}" name="attack" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A7AF746D-A5A0-49C4-8CA0-4D91CFD5968C}" name="stealth" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5A716A4E-B931-495B-A0F1-49B7994B479E}" name="hp" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CE594B33-A603-44A4-B2FE-57F35DD4502D}" name="name" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A700E0B7-92F5-4727-9CE4-42B14AFC7852}" name="attack" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A7AF746D-A5A0-49C4-8CA0-4D91CFD5968C}" name="stealth" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5A716A4E-B931-495B-A0F1-49B7994B479E}" name="hp" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2404,443 +2509,516 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9426CA-C6DF-421C-A0F8-7F1759212E42}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="F26"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="21"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="12">
+        <v>9</v>
+      </c>
+      <c r="C53" s="13">
+        <v>10</v>
+      </c>
+      <c r="D53" s="12">
+        <v>6</v>
+      </c>
+      <c r="E53" s="13">
+        <v>5</v>
+      </c>
+      <c r="F53" s="12">
+        <v>4</v>
+      </c>
+      <c r="G53" s="13">
+        <v>3</v>
+      </c>
+      <c r="H53" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="B54" s="12">
+        <v>3</v>
+      </c>
+      <c r="C54" s="13">
+        <v>9</v>
+      </c>
+      <c r="D54" s="12">
+        <v>10</v>
+      </c>
+      <c r="E54" s="13">
+        <v>6</v>
+      </c>
+      <c r="F54" s="12">
+        <v>5</v>
+      </c>
+      <c r="G54" s="13">
+        <v>8</v>
+      </c>
+      <c r="H54" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="B55" s="15">
+        <v>5</v>
+      </c>
+      <c r="C55" s="16">
+        <v>9</v>
+      </c>
+      <c r="D55" s="15">
+        <v>9</v>
+      </c>
+      <c r="E55" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="F55" s="15"/>
+      <c r="G55" s="16">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>6</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="H55" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="19"/>
+      <c r="C60" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="20" t="e" cm="1" vm="1">
+        <f t="array" ref="A65">_xlfn._xlws.PY(0,1,animals[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>35</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="B97" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="13">
-        <v>9</v>
-      </c>
-      <c r="C42" s="14">
-        <v>10</v>
-      </c>
-      <c r="D42" s="13">
-        <v>6</v>
-      </c>
-      <c r="E42" s="14">
-        <v>5</v>
-      </c>
-      <c r="F42" s="13">
-        <v>4</v>
-      </c>
-      <c r="G42" s="14">
-        <v>3</v>
-      </c>
-      <c r="H42" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="13">
-        <v>3</v>
-      </c>
-      <c r="C43" s="14">
-        <v>9</v>
-      </c>
-      <c r="D43" s="13">
-        <v>10</v>
-      </c>
-      <c r="E43" s="14">
-        <v>6</v>
-      </c>
-      <c r="F43" s="13">
-        <v>5</v>
-      </c>
-      <c r="G43" s="14">
-        <v>8</v>
-      </c>
-      <c r="H43" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="16">
-        <v>5</v>
-      </c>
-      <c r="C44" s="17">
-        <v>9</v>
-      </c>
-      <c r="D44" s="16">
-        <v>9</v>
-      </c>
-      <c r="E44" s="17">
-        <v>3</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17">
-        <v>4</v>
-      </c>
-      <c r="H44" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="23"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="23"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="23"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="e" cm="1" vm="1">
-        <f t="array" ref="A57">_xlfn._xlws.PY(0,1,animals[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="B57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B3:D9">
+  <conditionalFormatting sqref="B7:D13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2852,7 +3030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B42:H44">
+  <conditionalFormatting sqref="B53:H55">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2884,7 +3062,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B42:H44</xm:sqref>
+          <xm:sqref>B53:H55</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
